--- a/Projekttagebuch/Projekttagebuch - Emre Dündar 941223.xlsx
+++ b/Projekttagebuch/Projekttagebuch - Emre Dündar 941223.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Projekttagebuch - Emre dündar</t>
   </si>
@@ -226,6 +226,11 @@
       </rPr>
       <t>UDP-Receiver lokal programmiert und die Daten vom 172er Server getestet</t>
     </r>
+  </si>
+  <si>
+    <t>- Firewallproblem mit Herr Dr. Rösch gelöst +- Komplette Verbindung vom Tracker zu SunSim hergestellt +- Gestikerkennung teilweise programmiert</t>
   </si>
 </sst>
 </file>
@@ -1837,10 +1842,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="22.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+    <row r="10" ht="50.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>40640</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" ht="22.75" customHeight="1">
       <c r="A11" s="10"/>
